--- a/templates/materiallist.xlsx
+++ b/templates/materiallist.xlsx
@@ -1,152 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\final\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406A9946-BA60-4FCD-A0ED-D532FBFEE78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">ENGLISH ELECTRICAL CONTRACTORS, INC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>3627 CONFLANS RD. IRVING, TX 75061</t>
-    </r>
-  </si>
-  <si>
-    <t>Employee Name</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>Anthony Meo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project: </t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Shop</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total </t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="10">
     <font>
+      <name val="Arial"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color indexed="8"/>
       <sz val="20"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <color indexed="8"/>
       <sz val="16"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <i/>
+      <name val="Arial"/>
+      <b val="1"/>
+      <i val="1"/>
+      <color indexed="8"/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <color indexed="8"/>
       <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <i/>
+      <name val="Arial"/>
+      <b val="1"/>
+      <i val="1"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color indexed="8"/>
       <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <color indexed="8"/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color indexed="8"/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -158,7 +90,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -541,253 +473,280 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="89">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -856,69 +815,7 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>731520</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>137914</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>993655</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.jpeg" descr="image1.jpeg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1315719" y="391914"/>
-          <a:ext cx="1240037" cy="1240036"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1965,548 +1862,985 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="16.33203125" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="64.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="16.33203125" style="1"/>
+    <col width="7.6640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="12.88671875" customWidth="1" style="1" min="2" max="2"/>
+    <col width="64.5546875" customWidth="1" style="1" min="3" max="3"/>
+    <col width="6" customWidth="1" style="1" min="4" max="4"/>
+    <col width="9.6640625" customWidth="1" style="1" min="5" max="5"/>
+    <col width="14.6640625" customWidth="1" style="1" min="6" max="6"/>
+    <col width="15.44140625" customWidth="1" style="1" min="7" max="7"/>
+    <col width="14" customWidth="1" style="1" min="8" max="8"/>
+    <col width="14.44140625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="7.77734375" customWidth="1" style="1" min="10" max="10"/>
+    <col width="16.33203125" customWidth="1" style="1" min="11" max="11"/>
+    <col width="16.33203125" customWidth="1" style="1" min="12" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" ht="29.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-    </row>
-    <row r="12" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
-    </row>
-    <row r="13" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
-    </row>
-    <row r="14" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
-    </row>
-    <row r="15" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-    </row>
-    <row r="16" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
-    </row>
-    <row r="17" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
-    </row>
-    <row r="18" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
-    </row>
-    <row r="19" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-    </row>
-    <row r="20" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="25"/>
-    </row>
-    <row r="21" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="25"/>
-    </row>
-    <row r="22" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="25"/>
-    </row>
-    <row r="23" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="25"/>
-    </row>
-    <row r="24" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="25"/>
-    </row>
-    <row r="25" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="25"/>
-    </row>
-    <row r="26" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="25"/>
-    </row>
-    <row r="27" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="25"/>
-    </row>
-    <row r="28" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="25"/>
-    </row>
-    <row r="29" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="25"/>
-    </row>
-    <row r="30" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="25"/>
-    </row>
-    <row r="31" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="25"/>
-    </row>
-    <row r="32" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="25"/>
-    </row>
-    <row r="33" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="25"/>
-    </row>
-    <row r="34" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="25"/>
-    </row>
-    <row r="35" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="25"/>
-    </row>
-    <row r="36" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="25"/>
-    </row>
-    <row r="37" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="25"/>
-    </row>
-    <row r="38" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="25"/>
-    </row>
-    <row r="39" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="25"/>
-    </row>
-    <row r="40" spans="1:10" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="11"/>
+    <row r="1" ht="19.95" customHeight="1" s="78" thickBot="1">
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="32" t="n"/>
+    </row>
+    <row r="2" ht="19.95" customHeight="1" s="78">
+      <c r="A2" s="5" t="n"/>
+      <c r="B2" s="79" t="inlineStr">
+        <is>
+          <t>ENGLISH ELECTRICAL CONTRACTORS, INC 
+3627 CONFLANS RD. IRVING, TX 75061</t>
+        </is>
+      </c>
+      <c r="C2" s="80" t="n"/>
+      <c r="D2" s="80" t="n"/>
+      <c r="E2" s="80" t="n"/>
+      <c r="F2" s="80" t="n"/>
+      <c r="G2" s="80" t="n"/>
+      <c r="H2" s="80" t="n"/>
+      <c r="I2" s="81" t="n"/>
+      <c r="J2" s="5" t="n"/>
+    </row>
+    <row r="3" ht="29.55" customHeight="1" s="78">
+      <c r="A3" s="5" t="n"/>
+      <c r="B3" s="82" t="n"/>
+      <c r="I3" s="83" t="n"/>
+      <c r="J3" s="5" t="n"/>
+    </row>
+    <row r="4" ht="21" customHeight="1" s="78">
+      <c r="A4" s="5" t="n"/>
+      <c r="B4" s="82" t="n"/>
+      <c r="I4" s="83" t="n"/>
+      <c r="J4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="21" customHeight="1" s="78">
+      <c r="A5" s="5" t="n"/>
+      <c r="B5" s="82" t="n"/>
+      <c r="I5" s="83" t="n"/>
+      <c r="J5" s="5" t="n"/>
+    </row>
+    <row r="6" ht="22.95" customHeight="1" s="78" thickBot="1">
+      <c r="A6" s="5" t="n"/>
+      <c r="B6" s="84" t="n"/>
+      <c r="C6" s="85" t="n"/>
+      <c r="D6" s="85" t="n"/>
+      <c r="E6" s="85" t="n"/>
+      <c r="F6" s="85" t="n"/>
+      <c r="G6" s="85" t="n"/>
+      <c r="H6" s="85" t="n"/>
+      <c r="I6" s="86" t="n"/>
+      <c r="J6" s="5" t="n"/>
+    </row>
+    <row r="7" ht="28.05" customHeight="1" s="78">
+      <c r="A7" s="33" t="n"/>
+      <c r="B7" s="43" t="inlineStr">
+        <is>
+          <t>Employee Name</t>
+        </is>
+      </c>
+      <c r="C7" s="80" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="E7" s="31" t="n"/>
+      <c r="F7" s="31" t="n"/>
+      <c r="G7" s="13" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="H7" s="39" t="n"/>
+      <c r="I7" s="87" t="n"/>
+      <c r="J7" s="35" t="n"/>
+    </row>
+    <row r="8" ht="31.05" customHeight="1" s="78">
+      <c r="A8" s="33" t="n"/>
+      <c r="B8" s="45" t="inlineStr">
+        <is>
+          <t>Anthony Meo</t>
+        </is>
+      </c>
+      <c r="C8" s="88" t="n"/>
+      <c r="D8" s="14" t="n"/>
+      <c r="E8" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Project: </t>
+        </is>
+      </c>
+      <c r="F8" s="41" t="n"/>
+      <c r="G8" s="88" t="n"/>
+      <c r="H8" s="88" t="n"/>
+      <c r="I8" s="88" t="n"/>
+      <c r="J8" s="35" t="n"/>
+    </row>
+    <row r="9" ht="29.25" customHeight="1" s="78">
+      <c r="A9" s="33" t="n"/>
+      <c r="B9" s="17" t="n"/>
+      <c r="C9" s="17" t="n"/>
+      <c r="D9" s="34" t="n"/>
+      <c r="E9" s="18" t="n"/>
+      <c r="F9" s="19" t="n"/>
+      <c r="G9" s="17" t="n"/>
+      <c r="H9" s="17" t="n"/>
+      <c r="I9" s="17" t="n"/>
+      <c r="J9" s="35" t="n"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" s="78">
+      <c r="A10" s="33" t="n"/>
+      <c r="B10" s="41" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="C10" s="41" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D10" s="88" t="n"/>
+      <c r="E10" s="88" t="n"/>
+      <c r="F10" s="41" t="inlineStr">
+        <is>
+          <t>Shop</t>
+        </is>
+      </c>
+      <c r="G10" s="41" t="inlineStr">
+        <is>
+          <t>Supplier</t>
+        </is>
+      </c>
+      <c r="H10" s="41" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="I10" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Total </t>
+        </is>
+      </c>
+      <c r="J10" s="35" t="n"/>
+    </row>
+    <row r="11" ht="28.05" customHeight="1" s="78">
+      <c r="A11" s="20" t="n"/>
+      <c r="B11" s="21" t="n"/>
+      <c r="C11" s="50" t="inlineStr">
+        <is>
+          <t>4-Square Box</t>
+        </is>
+      </c>
+      <c r="D11" s="49" t="n"/>
+      <c r="E11" s="51" t="n"/>
+      <c r="F11" s="22" t="n"/>
+      <c r="G11" s="23" t="n"/>
+      <c r="H11" s="24" t="n"/>
+      <c r="I11" s="24" t="n"/>
+      <c r="J11" s="25" t="n"/>
+    </row>
+    <row r="12" ht="28.05" customHeight="1" s="78">
+      <c r="A12" s="20" t="n"/>
+      <c r="B12" s="52" t="n"/>
+      <c r="C12" s="64" t="inlineStr">
+        <is>
+          <t>4-Square Bracket Box</t>
+        </is>
+      </c>
+      <c r="D12" s="57" t="n"/>
+      <c r="E12" s="67" t="n"/>
+      <c r="F12" s="22" t="n"/>
+      <c r="G12" s="23" t="n"/>
+      <c r="H12" s="24" t="n"/>
+      <c r="I12" s="24" t="n"/>
+      <c r="J12" s="25" t="n"/>
+    </row>
+    <row r="13" ht="28.05" customHeight="1" s="78">
+      <c r="A13" s="20" t="n"/>
+      <c r="B13" s="52" t="n"/>
+      <c r="C13" s="64" t="inlineStr">
+        <is>
+          <t>Deep 4-Square Bracket Box</t>
+        </is>
+      </c>
+      <c r="D13" s="59" t="n"/>
+      <c r="E13" s="68" t="n"/>
+      <c r="F13" s="54" t="n"/>
+      <c r="G13" s="23" t="n"/>
+      <c r="H13" s="24" t="n"/>
+      <c r="I13" s="24" t="n"/>
+      <c r="J13" s="25" t="n"/>
+    </row>
+    <row r="14" ht="28.05" customHeight="1" s="78">
+      <c r="A14" s="20" t="n"/>
+      <c r="B14" s="52" t="n"/>
+      <c r="C14" s="64" t="inlineStr">
+        <is>
+          <t>Deep 4-Square Box</t>
+        </is>
+      </c>
+      <c r="D14" s="48" t="n"/>
+      <c r="E14" s="68" t="n"/>
+      <c r="F14" s="54" t="n"/>
+      <c r="G14" s="23" t="n"/>
+      <c r="H14" s="24" t="n"/>
+      <c r="I14" s="24" t="n"/>
+      <c r="J14" s="25" t="n"/>
+    </row>
+    <row r="15" ht="28.05" customHeight="1" s="78">
+      <c r="A15" s="20" t="n"/>
+      <c r="B15" s="52" t="n"/>
+      <c r="C15" s="64" t="inlineStr">
+        <is>
+          <t>Octagon Box</t>
+        </is>
+      </c>
+      <c r="D15" s="48" t="n"/>
+      <c r="E15" s="68" t="n"/>
+      <c r="F15" s="54" t="n"/>
+      <c r="G15" s="23" t="n"/>
+      <c r="H15" s="24" t="n"/>
+      <c r="I15" s="24" t="n"/>
+      <c r="J15" s="25" t="n"/>
+    </row>
+    <row r="16" ht="28.05" customHeight="1" s="78">
+      <c r="A16" s="20" t="n"/>
+      <c r="B16" s="52" t="n"/>
+      <c r="C16" s="62" t="inlineStr">
+        <is>
+          <t>4-Square Cover</t>
+        </is>
+      </c>
+      <c r="D16" s="48" t="n"/>
+      <c r="E16" s="68" t="n"/>
+      <c r="F16" s="54" t="n"/>
+      <c r="G16" s="23" t="n"/>
+      <c r="H16" s="24" t="n"/>
+      <c r="I16" s="24" t="n"/>
+      <c r="J16" s="25" t="n"/>
+    </row>
+    <row r="17" ht="28.05" customHeight="1" s="78">
+      <c r="A17" s="20" t="n"/>
+      <c r="B17" s="52" t="n"/>
+      <c r="C17" s="64" t="inlineStr">
+        <is>
+          <t>4-Square Industrial Duplex Cover</t>
+        </is>
+      </c>
+      <c r="D17" s="48" t="n"/>
+      <c r="E17" s="68" t="n"/>
+      <c r="F17" s="54" t="n"/>
+      <c r="G17" s="23" t="n"/>
+      <c r="H17" s="24" t="n"/>
+      <c r="I17" s="24" t="n"/>
+      <c r="J17" s="25" t="n"/>
+    </row>
+    <row r="18" ht="28.05" customHeight="1" s="78">
+      <c r="A18" s="20" t="n"/>
+      <c r="B18" s="52" t="n"/>
+      <c r="C18" s="64" t="inlineStr">
+        <is>
+          <t>4-Square Industrial Switch Cover</t>
+        </is>
+      </c>
+      <c r="D18" s="48" t="n"/>
+      <c r="E18" s="68" t="n"/>
+      <c r="F18" s="54" t="n"/>
+      <c r="G18" s="23" t="n"/>
+      <c r="H18" s="24" t="n"/>
+      <c r="I18" s="24" t="n"/>
+      <c r="J18" s="25" t="n"/>
+    </row>
+    <row r="19" ht="28.05" customHeight="1" s="78">
+      <c r="A19" s="20" t="n"/>
+      <c r="B19" s="52" t="n"/>
+      <c r="C19" s="61" t="inlineStr">
+        <is>
+          <t>NVent Caddy Mounting Slider Bracket</t>
+        </is>
+      </c>
+      <c r="D19" s="48" t="n"/>
+      <c r="E19" s="68" t="n"/>
+      <c r="F19" s="54" t="n"/>
+      <c r="G19" s="23" t="n"/>
+      <c r="H19" s="24" t="n"/>
+      <c r="I19" s="24" t="n"/>
+      <c r="J19" s="25" t="n"/>
+    </row>
+    <row r="20" ht="28.05" customHeight="1" s="78">
+      <c r="A20" s="20" t="n"/>
+      <c r="B20" s="52" t="n"/>
+      <c r="C20" s="64" t="inlineStr">
+        <is>
+          <t>Cut-In Box</t>
+        </is>
+      </c>
+      <c r="D20" s="47" t="n"/>
+      <c r="E20" s="68" t="n"/>
+      <c r="F20" s="54" t="n"/>
+      <c r="G20" s="23" t="n"/>
+      <c r="H20" s="26" t="n"/>
+      <c r="I20" s="26" t="n"/>
+      <c r="J20" s="25" t="n"/>
+    </row>
+    <row r="21" ht="28.05" customHeight="1" s="78">
+      <c r="A21" s="20" t="n"/>
+      <c r="B21" s="52" t="n"/>
+      <c r="C21" s="64" t="inlineStr">
+        <is>
+          <t>Drywall Clamps</t>
+        </is>
+      </c>
+      <c r="D21" s="48" t="n"/>
+      <c r="E21" s="68" t="n"/>
+      <c r="F21" s="54" t="n"/>
+      <c r="G21" s="23" t="n"/>
+      <c r="H21" s="26" t="n"/>
+      <c r="I21" s="26" t="n"/>
+      <c r="J21" s="25" t="n"/>
+    </row>
+    <row r="22" ht="28.05" customHeight="1" s="78">
+      <c r="A22" s="20" t="n"/>
+      <c r="B22" s="52" t="n"/>
+      <c r="C22" s="64" t="inlineStr">
+        <is>
+          <t>Single Gang Mud Ring</t>
+        </is>
+      </c>
+      <c r="D22" s="48" t="n"/>
+      <c r="E22" s="68" t="n"/>
+      <c r="F22" s="54" t="n"/>
+      <c r="G22" s="23" t="n"/>
+      <c r="H22" s="26" t="n"/>
+      <c r="I22" s="26" t="n"/>
+      <c r="J22" s="25" t="n"/>
+    </row>
+    <row r="23" ht="28.05" customHeight="1" s="78">
+      <c r="A23" s="20" t="n"/>
+      <c r="B23" s="52" t="n"/>
+      <c r="C23" s="64" t="inlineStr">
+        <is>
+          <t>Two Gang Mud Ring</t>
+        </is>
+      </c>
+      <c r="D23" s="48" t="n"/>
+      <c r="E23" s="68" t="n"/>
+      <c r="F23" s="54" t="n"/>
+      <c r="G23" s="27" t="n"/>
+      <c r="H23" s="26" t="n"/>
+      <c r="I23" s="26" t="n"/>
+      <c r="J23" s="25" t="n"/>
+    </row>
+    <row r="24" ht="28.05" customHeight="1" s="78">
+      <c r="A24" s="20" t="n"/>
+      <c r="B24" s="52" t="n"/>
+      <c r="C24" s="64" t="inlineStr">
+        <is>
+          <t>Double Barrel MC Connector</t>
+        </is>
+      </c>
+      <c r="D24" s="48" t="n"/>
+      <c r="E24" s="68" t="n"/>
+      <c r="F24" s="54" t="n"/>
+      <c r="G24" s="27" t="n"/>
+      <c r="H24" s="26" t="n"/>
+      <c r="I24" s="26" t="n"/>
+      <c r="J24" s="25" t="n"/>
+    </row>
+    <row r="25" ht="28.05" customHeight="1" s="78">
+      <c r="A25" s="20" t="n"/>
+      <c r="B25" s="52" t="n"/>
+      <c r="C25" s="61" t="inlineStr">
+        <is>
+          <t>Single Barrel MC Connector</t>
+        </is>
+      </c>
+      <c r="D25" s="48" t="n"/>
+      <c r="E25" s="70" t="n"/>
+      <c r="F25" s="54" t="n"/>
+      <c r="G25" s="27" t="n"/>
+      <c r="H25" s="26" t="n"/>
+      <c r="I25" s="26" t="n"/>
+      <c r="J25" s="25" t="n"/>
+    </row>
+    <row r="26" ht="28.05" customHeight="1" s="78">
+      <c r="A26" s="20" t="n"/>
+      <c r="B26" s="52" t="n"/>
+      <c r="C26" s="64" t="inlineStr">
+        <is>
+          <t>1/2” 90 Degree Flex Connector</t>
+        </is>
+      </c>
+      <c r="D26" s="56" t="n"/>
+      <c r="E26" s="69" t="n"/>
+      <c r="F26" s="54" t="n"/>
+      <c r="G26" s="27" t="n"/>
+      <c r="H26" s="26" t="n"/>
+      <c r="I26" s="26" t="n"/>
+      <c r="J26" s="25" t="n"/>
+    </row>
+    <row r="27" ht="28.05" customHeight="1" s="78">
+      <c r="A27" s="20" t="n"/>
+      <c r="B27" s="52" t="n"/>
+      <c r="C27" s="64" t="inlineStr">
+        <is>
+          <t>3/4" MC Connector</t>
+        </is>
+      </c>
+      <c r="D27" s="56" t="n"/>
+      <c r="E27" s="69" t="n"/>
+      <c r="F27" s="54" t="n"/>
+      <c r="G27" s="27" t="n"/>
+      <c r="H27" s="26" t="n"/>
+      <c r="I27" s="26" t="n"/>
+      <c r="J27" s="25" t="n"/>
+    </row>
+    <row r="28" ht="28.05" customHeight="1" s="78">
+      <c r="A28" s="20" t="n"/>
+      <c r="B28" s="52" t="n"/>
+      <c r="C28" s="64" t="inlineStr">
+        <is>
+          <t>Ground Stinger</t>
+        </is>
+      </c>
+      <c r="D28" s="48" t="n"/>
+      <c r="E28" s="68" t="n"/>
+      <c r="F28" s="54" t="n"/>
+      <c r="G28" s="27" t="n"/>
+      <c r="H28" s="26" t="n"/>
+      <c r="I28" s="26" t="n"/>
+      <c r="J28" s="25" t="n"/>
+    </row>
+    <row r="29" ht="28.05" customHeight="1" s="78">
+      <c r="A29" s="20" t="n"/>
+      <c r="B29" s="52" t="n"/>
+      <c r="C29" s="64" t="inlineStr">
+        <is>
+          <t>Tek Screws</t>
+        </is>
+      </c>
+      <c r="D29" s="48" t="n"/>
+      <c r="E29" s="68" t="n"/>
+      <c r="F29" s="54" t="n"/>
+      <c r="G29" s="27" t="n"/>
+      <c r="H29" s="26" t="n"/>
+      <c r="I29" s="26" t="n"/>
+      <c r="J29" s="25" t="n"/>
+    </row>
+    <row r="30" ht="28.05" customHeight="1" s="78">
+      <c r="A30" s="20" t="n"/>
+      <c r="B30" s="52" t="n"/>
+      <c r="C30" s="64" t="inlineStr">
+        <is>
+          <t>Pan Head Self Tappers</t>
+        </is>
+      </c>
+      <c r="D30" s="59" t="n"/>
+      <c r="E30" s="68" t="n"/>
+      <c r="F30" s="54" t="n"/>
+      <c r="G30" s="27" t="n"/>
+      <c r="H30" s="26" t="n"/>
+      <c r="I30" s="26" t="n"/>
+      <c r="J30" s="25" t="n"/>
+    </row>
+    <row r="31" ht="28.05" customHeight="1" s="78">
+      <c r="A31" s="20" t="n"/>
+      <c r="B31" s="52" t="n"/>
+      <c r="C31" s="62" t="inlineStr">
+        <is>
+          <t>1/4” Toggle Bolts</t>
+        </is>
+      </c>
+      <c r="D31" s="58" t="n"/>
+      <c r="E31" s="77" t="n"/>
+      <c r="F31" s="54" t="n"/>
+      <c r="G31" s="27" t="n"/>
+      <c r="H31" s="26" t="n"/>
+      <c r="I31" s="26" t="n"/>
+      <c r="J31" s="25" t="n"/>
+    </row>
+    <row r="32" ht="28.05" customHeight="1" s="78">
+      <c r="A32" s="20" t="n"/>
+      <c r="B32" s="52" t="n"/>
+      <c r="C32" s="64" t="inlineStr">
+        <is>
+          <t>Mac-2 Straps</t>
+        </is>
+      </c>
+      <c r="D32" s="58" t="n"/>
+      <c r="E32" s="76" t="n"/>
+      <c r="F32" s="54" t="n"/>
+      <c r="G32" s="27" t="n"/>
+      <c r="H32" s="26" t="n"/>
+      <c r="I32" s="26" t="n"/>
+      <c r="J32" s="25" t="n"/>
+    </row>
+    <row r="33" ht="28.05" customHeight="1" s="78">
+      <c r="A33" s="20" t="n"/>
+      <c r="B33" s="52" t="n"/>
+      <c r="C33" s="66" t="inlineStr">
+        <is>
+          <t>Wire Nuts</t>
+        </is>
+      </c>
+      <c r="D33" s="75" t="n"/>
+      <c r="E33" s="74" t="n"/>
+      <c r="F33" s="54" t="n"/>
+      <c r="G33" s="27" t="n"/>
+      <c r="H33" s="26" t="n"/>
+      <c r="I33" s="26" t="n"/>
+      <c r="J33" s="25" t="n"/>
+    </row>
+    <row r="34" ht="28.05" customHeight="1" s="78">
+      <c r="A34" s="20" t="n"/>
+      <c r="B34" s="53" t="n"/>
+      <c r="C34" s="66" t="inlineStr">
+        <is>
+          <t>Big Blue Wire Nut</t>
+        </is>
+      </c>
+      <c r="D34" s="72" t="n"/>
+      <c r="E34" s="73" t="n"/>
+      <c r="F34" s="54" t="n"/>
+      <c r="G34" s="27" t="n"/>
+      <c r="H34" s="26" t="n"/>
+      <c r="I34" s="26" t="n"/>
+      <c r="J34" s="25" t="n"/>
+    </row>
+    <row r="35" ht="28.05" customHeight="1" s="78">
+      <c r="A35" s="20" t="n"/>
+      <c r="B35" s="53" t="n"/>
+      <c r="C35" s="66" t="inlineStr">
+        <is>
+          <t>Anti-Short Stop MC Bushings</t>
+        </is>
+      </c>
+      <c r="D35" s="72" t="n"/>
+      <c r="E35" s="73" t="n"/>
+      <c r="F35" s="54" t="n"/>
+      <c r="G35" s="27" t="n"/>
+      <c r="H35" s="26" t="n"/>
+      <c r="I35" s="26" t="n"/>
+      <c r="J35" s="25" t="n"/>
+    </row>
+    <row r="36" ht="28.05" customHeight="1" s="78">
+      <c r="A36" s="20" t="n"/>
+      <c r="B36" s="53" t="n"/>
+      <c r="C36" s="65" t="inlineStr">
+        <is>
+          <t>MP1</t>
+        </is>
+      </c>
+      <c r="D36" s="72" t="n"/>
+      <c r="E36" s="73" t="n"/>
+      <c r="F36" s="54" t="n"/>
+      <c r="G36" s="27" t="n"/>
+      <c r="H36" s="26" t="n"/>
+      <c r="I36" s="26" t="n"/>
+      <c r="J36" s="25" t="n"/>
+    </row>
+    <row r="37" ht="28.05" customHeight="1" s="78">
+      <c r="A37" s="20" t="n"/>
+      <c r="B37" s="53" t="n"/>
+      <c r="C37" s="64" t="inlineStr">
+        <is>
+          <t>MP2</t>
+        </is>
+      </c>
+      <c r="D37" s="60" t="n"/>
+      <c r="E37" s="71" t="n"/>
+      <c r="F37" s="55" t="n"/>
+      <c r="G37" s="27" t="n"/>
+      <c r="H37" s="26" t="n"/>
+      <c r="I37" s="26" t="n"/>
+      <c r="J37" s="25" t="n"/>
+    </row>
+    <row r="38" ht="28.05" customHeight="1" s="78">
+      <c r="A38" s="20" t="n"/>
+      <c r="B38" s="53" t="n"/>
+      <c r="C38" s="64" t="inlineStr">
+        <is>
+          <t>Jet Line</t>
+        </is>
+      </c>
+      <c r="D38" s="60" t="n"/>
+      <c r="E38" s="71" t="n"/>
+      <c r="F38" s="55" t="n"/>
+      <c r="G38" s="27" t="n"/>
+      <c r="H38" s="26" t="n"/>
+      <c r="I38" s="26" t="n"/>
+      <c r="J38" s="25" t="n"/>
+    </row>
+    <row r="39" ht="28.05" customHeight="1" s="78">
+      <c r="A39" s="20" t="n"/>
+      <c r="B39" s="53" t="n"/>
+      <c r="C39" s="63" t="inlineStr">
+        <is>
+          <t>3/4” Snap-In Bushings</t>
+        </is>
+      </c>
+      <c r="D39" s="60" t="n"/>
+      <c r="E39" s="71" t="n"/>
+      <c r="F39" s="55" t="n"/>
+      <c r="G39" s="27" t="n"/>
+      <c r="H39" s="26" t="n"/>
+      <c r="I39" s="26" t="n"/>
+      <c r="J39" s="25" t="n"/>
+    </row>
+    <row r="40" ht="19.95" customHeight="1" s="78" thickBot="1">
+      <c r="A40" s="36" t="n"/>
+      <c r="B40" s="28" t="n"/>
+      <c r="C40" s="37" t="inlineStr">
+        <is>
+          <t>18/2 LV Dimmer Cable</t>
+        </is>
+      </c>
+      <c r="D40" s="37" t="n"/>
+      <c r="E40" s="37" t="n"/>
+      <c r="F40" s="28" t="n"/>
+      <c r="G40" s="28" t="n"/>
+      <c r="H40" s="28" t="n"/>
+      <c r="I40" s="28" t="n"/>
+      <c r="J40" s="38" t="n"/>
+    </row>
+    <row r="41">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>12/2 LV MC</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>12/3 LV MC</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>8/3 LV MC</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>12/2 HV MC</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>12/3 HV MC</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>8/2 HV MC</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1/2" One Hole Strap</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>3/4" FLEX Conduit</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>3/4" FLEX Connector</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>3/4" 1 Hole Strap</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1/2" EMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1/2" EMT Connectors</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1/2" One Hole Strap</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1” EMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1” EMT Connector</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1” EMT Coupling</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1" EMT Mini Strap</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1” One Hole Strap</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1" EMT Push-On Plastic Insulating Bushing</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1-1/4” EMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1-1/4" EMT Connector</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1-1/4" EMT Coupling</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1-1/4" EMT 90 Degree Elbow</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1-1/4" EMT Mini Strap</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1-1/4" One Hole Strap</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1-1/4" Push-On Plastic Insulating Bushing</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>#12 THHN Black Wire</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>#12 THHN White Wire</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>#12 THHN Green Wire</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Ceiling Wires</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>KX Straps</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Duplex Receptacle</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Orange Duplex Receptacle</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Orange Decora Duplex Receptacle</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Decora Duplex Receptacle</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>GFCI Duplex Receptacle</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Duplex Receptacle Cover</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Decora Duplex Receptacle Cover</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Quadruplex Receptacle Cover</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Decora Quadruplex Receptacle Cover</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Two Gang Stainless Steel Blank Plate</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Single-Pole Motor Rated 40A Switch</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Two-Pole Motor Rated 40A Switch</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Standard Exit Sign</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>LED EdgeLit Exit Sign Recessed Mount</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B2:I6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B2:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F8:I8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;12&amp;K000000</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>